--- a/docs/佛山移动机房表.xlsx
+++ b/docs/佛山移动机房表.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -10,7 +10,7 @@
     <sheet name="顺德站点" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">顺德站点!$A$1:$F$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">顺德站点!$A$1:$F$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -648,12 +648,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1262,14 +1261,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1330,6 +1328,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1590,10 +1595,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="5"/>
@@ -1694,10 +1699,10 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2"/>
@@ -1710,10 +1715,10 @@
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="2"/>
@@ -1726,10 +1731,10 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="2"/>
@@ -1774,10 +1779,10 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="2"/>
@@ -1822,10 +1827,10 @@
       <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="2"/>
@@ -1918,10 +1923,10 @@
       <c r="B20" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E20" s="2"/>
@@ -2046,10 +2051,10 @@
       <c r="B28" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E28" s="2"/>
@@ -2158,10 +2163,10 @@
       <c r="B35" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E35" s="2"/>
@@ -2190,10 +2195,10 @@
       <c r="B37" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>147</v>
       </c>
       <c r="E37" s="2"/>
@@ -2422,550 +2427,6 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
